--- a/data/programs/piuh/docs/Anexo6.xlsx
+++ b/data/programs/piuh/docs/Anexo6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VRIP 2023\DCT\programa institucional\anexos evalaucion de expertos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311A0C02-B20B-41C3-BC0B-E726B5B970A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D402DA-581A-4D68-8D7D-1111D3DE6B03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" xr2:uid="{D4A827E2-8714-49CF-B4A6-2A208CB3C175}"/>
   </bookViews>
@@ -217,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -425,15 +425,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -559,106 +550,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +655,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +973,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,12 +984,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="7"/>
@@ -1012,116 +1001,115 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="13">
         <f>SUM('Criterio 1'!D19+'Criterio 2'!D13+'Criterio 3'!D23)</f>
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="14">
         <f>F9/3</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="12">
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F19"/>
     <mergeCell ref="C10:E10"/>
@@ -1145,7 +1133,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,10 +1145,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
@@ -1169,30 +1157,30 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
@@ -1207,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1215,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1223,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1231,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1239,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1247,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1255,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1263,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1272,7 +1260,7 @@
       </c>
       <c r="D19" s="12">
         <f>SUM(D11:D18)/8</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1282,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,10 +1292,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
@@ -1316,30 +1304,30 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
@@ -1354,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1362,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1371,7 +1359,7 @@
       </c>
       <c r="D13" s="12">
         <f>SUM(D11:D12)/2</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1380,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,10 +1390,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
@@ -1414,30 +1402,30 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
@@ -1452,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1460,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1476,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1484,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1492,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -1500,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -1508,36 +1496,36 @@
         <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="15">
-        <v>90</v>
+      <c r="D19" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="47">
-        <v>90</v>
+      <c r="D20" s="46">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="3:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="4" t="s">
@@ -1545,7 +1533,7 @@
       </c>
       <c r="D23" s="12">
         <f>SUM(D11:D22)/10</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
